--- a/data/trans_orig/P1416-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F11AF72-F461-4AAF-B56E-BDEB4F0E0F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1961117-27AE-4A8A-970E-7D1477BA6F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56F0BEA3-6848-4459-BC86-206EA904470C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F38E6DD-AD20-49CD-BF25-FC607CC5D024}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="467">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,25 +95,28 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>9,06%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -122,25 +125,28 @@
     <t>96,18%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>90,94%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,1204 +167,1237 @@
     <t>5,4%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>7,1%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
     <t>91,14%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>11,31%</t>
@@ -1367,34 +1406,40 @@
     <t>10,11%</t>
   </si>
   <si>
-    <t>12,49%</t>
+    <t>12,37%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>87,87%</t>
   </si>
   <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>87,85%</t>
+    <t>87,71%</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14769992-06D6-4FE2-A42B-80289490FC93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8605B29-DDD2-4484-B8B0-75917EF5C715}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1999,10 +2044,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2011,19 +2056,19 @@
         <v>8812</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>101</v>
@@ -2032,13 +2077,13 @@
         <v>110946</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>124</v>
@@ -2047,13 +2092,13 @@
         <v>108355</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>225</v>
@@ -2062,13 +2107,13 @@
         <v>219301</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2128,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2098,13 +2143,13 @@
         <v>112755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -2113,18 +2158,18 @@
         <v>228113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2142,7 +2187,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2157,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2172,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2232,13 @@
         <v>31248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
@@ -2202,13 +2247,13 @@
         <v>53867</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -2217,19 +2262,19 @@
         <v>85115</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>546</v>
@@ -2238,13 +2283,13 @@
         <v>547406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>514</v>
@@ -2253,13 +2298,13 @@
         <v>521729</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1060</v>
@@ -2268,13 +2313,13 @@
         <v>1069135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2334,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -2304,13 +2349,13 @@
         <v>575596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -2319,18 +2364,18 @@
         <v>1154250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2348,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2363,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2378,7 +2423,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2438,13 @@
         <v>72021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2408,13 +2453,13 @@
         <v>94967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -2423,19 +2468,19 @@
         <v>166988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>831</v>
@@ -2444,10 +2489,10 @@
         <v>889779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>71</v>
@@ -2495,13 +2540,13 @@
         <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>908</v>
@@ -2510,13 +2555,13 @@
         <v>968393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1804</v>
@@ -2525,13 +2570,13 @@
         <v>1930193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,7 +2686,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>602</v>
@@ -2701,13 +2746,13 @@
         <v>678509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -2716,13 +2761,13 @@
         <v>683841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1337</v>
@@ -2731,13 +2776,13 @@
         <v>1362350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,10 +2868,10 @@
         <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>177</v>
@@ -2835,19 +2880,19 @@
         <v>181022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>922</v>
@@ -2856,13 +2901,13 @@
         <v>871510</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>892</v>
@@ -2871,13 +2916,13 @@
         <v>928302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>1814</v>
@@ -2886,13 +2931,13 @@
         <v>1799812</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2952,13 @@
         <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>997</v>
@@ -2922,13 +2967,13 @@
         <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1991</v>
@@ -2937,13 +2982,13 @@
         <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2981,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2996,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3056,13 @@
         <v>219279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>315</v>
@@ -3026,13 +3071,13 @@
         <v>324030</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>527</v>
@@ -3041,19 +3086,19 @@
         <v>543309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>3002</v>
@@ -3062,13 +3107,13 @@
         <v>3057265</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>2982</v>
@@ -3077,28 +3122,28 @@
         <v>3055168</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>5984</v>
       </c>
       <c r="N26" s="7">
-        <v>6112431</v>
+        <v>6112432</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3158,13 @@
         <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3128,28 +3173,28 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E4F68-53D2-4E05-9ACB-613806220D5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BF02A6-DD10-40FD-BC07-F29D7C209600}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3392,7 +3437,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>118</v>
@@ -3452,13 +3497,13 @@
         <v>115765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3467,13 +3512,13 @@
         <v>111905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -3482,18 +3527,18 @@
         <v>227670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3541,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,10 +3616,10 @@
         <v>35659</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>167</v>
@@ -3598,7 +3643,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>527</v>
@@ -3622,13 +3667,13 @@
         <v>549486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>1044</v>
@@ -3658,13 +3703,13 @@
         <v>586682</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -3673,13 +3718,13 @@
         <v>585145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1102</v>
@@ -3688,18 +3733,18 @@
         <v>1171827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3762,13 +3807,13 @@
         <v>58137</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -3777,13 +3822,13 @@
         <v>80147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -3792,19 +3837,19 @@
         <v>138284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>882</v>
@@ -3813,13 +3858,13 @@
         <v>959810</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>867</v>
@@ -3828,13 +3873,13 @@
         <v>950762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1749</v>
@@ -3843,13 +3888,13 @@
         <v>1910572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3909,13 @@
         <v>1017947</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>939</v>
@@ -3879,13 +3924,13 @@
         <v>1030909</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1875</v>
@@ -3894,13 +3939,13 @@
         <v>2048856</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3968,13 +4013,13 @@
         <v>40525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3983,13 +4028,13 @@
         <v>50174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -3998,19 +4043,19 @@
         <v>90699</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>654</v>
@@ -4019,13 +4064,13 @@
         <v>717098</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="H18" s="7">
         <v>659</v>
@@ -4034,13 +4079,13 @@
         <v>727000</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M18" s="7">
         <v>1313</v>
@@ -4049,13 +4094,13 @@
         <v>1444098</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4115,13 @@
         <v>757623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>705</v>
@@ -4085,13 +4130,13 @@
         <v>777174</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1394</v>
@@ -4100,13 +4145,13 @@
         <v>1534797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4174,13 +4219,13 @@
         <v>47632</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -4189,13 +4234,13 @@
         <v>84706</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M21" s="7">
         <v>129</v>
@@ -4204,19 +4249,19 @@
         <v>132338</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>863</v>
@@ -4225,13 +4270,13 @@
         <v>900107</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>921</v>
@@ -4240,13 +4285,13 @@
         <v>967195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>1784</v>
@@ -4255,13 +4300,13 @@
         <v>1867302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4321,13 @@
         <v>947739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>1003</v>
@@ -4291,13 +4336,13 @@
         <v>1051901</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1913</v>
@@ -4306,13 +4351,13 @@
         <v>1999640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4350,7 +4395,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4365,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4425,13 @@
         <v>175771</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>243</v>
@@ -4395,13 +4440,13 @@
         <v>260191</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -4410,19 +4455,19 @@
         <v>435962</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>3044</v>
@@ -4431,13 +4476,13 @@
         <v>3249986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>3054</v>
@@ -4446,13 +4491,13 @@
         <v>3296843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>6098</v>
@@ -4461,13 +4506,13 @@
         <v>6546828</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4527,13 @@
         <v>3425757</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -4497,13 +4542,13 @@
         <v>3557034</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>6505</v>
@@ -4512,13 +4557,13 @@
         <v>6982790</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,7 +4589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5368DA17-DF6B-41A3-979F-A5F67BBD1A1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40550816-4C68-410B-8A23-A7FBBDA9B0E8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4561,7 +4606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4674,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4689,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4704,7 +4749,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4764,13 @@
         <v>2013</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4734,13 +4779,13 @@
         <v>5239</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4749,19 +4794,19 @@
         <v>7252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>111</v>
@@ -4770,13 +4815,13 @@
         <v>114533</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H6" s="7">
         <v>109</v>
@@ -4785,13 +4830,13 @@
         <v>108121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -4800,13 +4845,13 @@
         <v>222654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4866,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -4836,13 +4881,13 @@
         <v>113360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -4851,18 +4896,18 @@
         <v>229906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4880,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4910,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4970,13 @@
         <v>27374</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4940,13 +4985,13 @@
         <v>32959</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -4955,19 +5000,19 @@
         <v>60333</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>512</v>
@@ -4976,13 +5021,13 @@
         <v>530880</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>519</v>
@@ -4991,13 +5036,13 @@
         <v>526520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>1031</v>
@@ -5006,13 +5051,13 @@
         <v>1057400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5072,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -5042,13 +5087,13 @@
         <v>559479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1090</v>
@@ -5057,18 +5102,18 @@
         <v>1117733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5131,13 +5176,13 @@
         <v>46098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -5146,13 +5191,13 @@
         <v>97180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5161,19 +5206,19 @@
         <v>143278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>908</v>
@@ -5182,13 +5227,13 @@
         <v>976333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>885</v>
@@ -5197,13 +5242,13 @@
         <v>945733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1793</v>
@@ -5212,13 +5257,13 @@
         <v>1922066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5278,13 @@
         <v>1022431</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>977</v>
@@ -5248,13 +5293,13 @@
         <v>1042913</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1928</v>
@@ -5263,13 +5308,13 @@
         <v>2065344</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5322,7 +5367,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5382,13 @@
         <v>26662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -5352,13 +5397,13 @@
         <v>63715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5367,19 +5412,19 @@
         <v>90376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>672</v>
@@ -5388,13 +5433,13 @@
         <v>732890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H18" s="7">
         <v>675</v>
@@ -5403,13 +5448,13 @@
         <v>721296</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="M18" s="7">
         <v>1347</v>
@@ -5418,13 +5463,13 @@
         <v>1454187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5484,13 @@
         <v>759552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>736</v>
@@ -5454,13 +5499,13 @@
         <v>785011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1432</v>
@@ -5469,13 +5514,13 @@
         <v>1544563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,7 +5543,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5543,13 +5588,13 @@
         <v>65322</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="H21" s="7">
         <v>75</v>
@@ -5558,13 +5603,13 @@
         <v>82479</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="M21" s="7">
         <v>139</v>
@@ -5573,19 +5618,19 @@
         <v>147801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>868</v>
@@ -5594,13 +5639,13 @@
         <v>872245</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7">
         <v>884</v>
@@ -5609,13 +5654,13 @@
         <v>961300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>1752</v>
@@ -5624,13 +5669,13 @@
         <v>1833545</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5690,13 @@
         <v>937567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>959</v>
@@ -5660,13 +5705,13 @@
         <v>1043779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1891</v>
@@ -5675,13 +5720,13 @@
         <v>1981346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,7 +5749,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5719,7 +5764,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5734,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5794,13 @@
         <v>167469</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>61</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>266</v>
@@ -5764,13 +5809,13 @@
         <v>281571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>426</v>
@@ -5779,19 +5824,19 @@
         <v>449040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>3071</v>
@@ -5800,13 +5845,13 @@
         <v>3226881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H26" s="7">
         <v>3072</v>
@@ -5815,13 +5860,13 @@
         <v>3262971</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>6143</v>
@@ -5830,13 +5875,13 @@
         <v>6489852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5896,13 @@
         <v>3394350</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>3338</v>
@@ -5866,13 +5911,13 @@
         <v>3544542</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>6569</v>
@@ -5881,13 +5926,13 @@
         <v>6938892</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E0564-2E92-46C3-B4C4-FB73C7A9EDBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6C1841-8C25-49CF-BC25-C23034A6194D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5930,7 +5975,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6043,7 +6088,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6058,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6073,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6133,13 @@
         <v>10886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -6103,13 +6148,13 @@
         <v>14797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6118,19 +6163,19 @@
         <v>25683</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>106</v>
@@ -6139,13 +6184,13 @@
         <v>91096</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="H6" s="7">
         <v>218</v>
@@ -6154,13 +6199,13 @@
         <v>115607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
       <c r="M6" s="7">
         <v>324</v>
@@ -6169,13 +6214,13 @@
         <v>206703</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6235,13 @@
         <v>101982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>242</v>
@@ -6205,13 +6250,13 @@
         <v>130404</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>360</v>
@@ -6220,18 +6265,18 @@
         <v>232386</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6249,7 +6294,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6258,13 +6303,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6273,13 +6318,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6339,13 @@
         <v>48058</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="H9" s="7">
         <v>118</v>
@@ -6309,13 +6354,13 @@
         <v>73632</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -6324,19 +6369,19 @@
         <v>121690</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>381</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>563</v>
@@ -6345,13 +6390,13 @@
         <v>501765</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>875</v>
@@ -6360,13 +6405,13 @@
         <v>516789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>1438</v>
@@ -6375,13 +6420,13 @@
         <v>1018554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6441,13 @@
         <v>549823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>996</v>
@@ -6411,13 +6456,13 @@
         <v>617833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1608</v>
@@ -6426,18 +6471,18 @@
         <v>1167656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6464,13 +6509,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6479,7 +6524,7 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
@@ -6500,13 +6545,13 @@
         <v>95623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -6515,13 +6560,13 @@
         <v>108751</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>107</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -6530,19 +6575,19 @@
         <v>204374</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>884</v>
@@ -6551,13 +6596,13 @@
         <v>943625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>1350</v>
@@ -6566,13 +6611,13 @@
         <v>946237</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>2234</v>
@@ -6581,13 +6626,13 @@
         <v>1889862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6647,13 @@
         <v>1039248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>1514</v>
@@ -6617,13 +6662,13 @@
         <v>1056311</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>2478</v>
@@ -6632,13 +6677,13 @@
         <v>2095559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,7 +6706,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6676,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6691,7 +6736,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6751,13 @@
         <v>87341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>139</v>
@@ -6721,13 +6766,13 @@
         <v>96595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -6736,19 +6781,19 @@
         <v>183936</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>595</v>
@@ -6757,13 +6802,13 @@
         <v>637524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>900</v>
@@ -6772,13 +6817,13 @@
         <v>769785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="M18" s="7">
         <v>1495</v>
@@ -6787,13 +6832,13 @@
         <v>1407309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6853,13 @@
         <v>724865</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1039</v>
@@ -6823,13 +6868,13 @@
         <v>866380</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1711</v>
@@ -6838,13 +6883,13 @@
         <v>1591245</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,13 +6921,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6891,13 +6936,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6957,13 @@
         <v>85345</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H21" s="7">
         <v>182</v>
@@ -6927,13 +6972,13 @@
         <v>137834</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M21" s="7">
         <v>266</v>
@@ -6942,19 +6987,19 @@
         <v>223179</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>364</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>920</v>
@@ -6963,13 +7008,13 @@
         <v>877934</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>1375</v>
@@ -6978,13 +7023,13 @@
         <v>1006287</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>2295</v>
@@ -6993,13 +7038,13 @@
         <v>1884221</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7059,13 @@
         <v>963279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>1558</v>
@@ -7029,13 +7074,13 @@
         <v>1146883</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>2562</v>
@@ -7044,13 +7089,13 @@
         <v>2110162</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7085,10 +7130,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7097,13 +7142,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7163,13 @@
         <v>327252</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>625</v>
@@ -7133,13 +7178,13 @@
         <v>431609</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>927</v>
@@ -7148,19 +7193,19 @@
         <v>758862</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>3068</v>
@@ -7169,13 +7214,13 @@
         <v>3051945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>4718</v>
@@ -7184,13 +7229,13 @@
         <v>3354705</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>7786</v>
@@ -7199,13 +7244,13 @@
         <v>6406650</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,13 +7265,13 @@
         <v>3379197</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>5349</v>
@@ -7235,13 +7280,13 @@
         <v>3817811</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>8719</v>
@@ -7250,13 +7295,13 @@
         <v>7197008</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1416-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1961117-27AE-4A8A-970E-7D1477BA6F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1D9A80-0029-48E0-B6D5-948D6E1E4D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F38E6DD-AD20-49CD-BF25-FC607CC5D024}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{473A2570-D58C-4840-9B48-DE815452299B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="462">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,19 +95,19 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>3,86%</t>
@@ -116,7 +116,7 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>7,3%</t>
+    <t>7,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,25 +125,25 @@
     <t>96,18%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>92,7%</t>
+    <t>92,67%</t>
   </si>
   <si>
     <t>98,15%</t>
@@ -152,7 +152,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -170,16 +170,16 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>7,57%</t>
+    <t>7,48%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>7,37%</t>
@@ -188,13 +188,13 @@
     <t>6,01%</t>
   </si>
   <si>
-    <t>8,92%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>92,43%</t>
+    <t>92,52%</t>
   </si>
   <si>
     <t>96,3%</t>
@@ -203,22 +203,22 @@
     <t>90,64%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>91,08%</t>
+    <t>90,87%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -230,16 +230,16 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>8,65%</t>
@@ -248,34 +248,34 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>10,04%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>94,16%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>92,02%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>90,04%</t>
+    <t>89,96%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -290,55 +290,55 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -353,1093 +353,1078 @@
     <t>7,5%</t>
   </si>
   <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8605B29-DDD2-4484-B8B0-75917EF5C715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E530AEE-B96E-493B-B17E-19745D28BB21}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2444,7 +2429,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2453,13 +2438,13 @@
         <v>94967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -2492,10 +2477,10 @@
         <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>819</v>
@@ -2504,10 +2489,10 @@
         <v>873426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>74</v>
@@ -3089,10 +3074,10 @@
         <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,16 +3089,16 @@
         <v>3002</v>
       </c>
       <c r="D26" s="7">
-        <v>3057265</v>
+        <v>3057264</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>2982</v>
@@ -3122,13 +3107,13 @@
         <v>3055168</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>5984</v>
@@ -3137,13 +3122,13 @@
         <v>6112432</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3140,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -3199,7 +3184,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BF02A6-DD10-40FD-BC07-F29D7C209600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D1C555-A5B5-4489-8728-F450771A65FC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3237,7 +3222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3350,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3365,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3380,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3380,13 @@
         <v>4247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3410,13 +3395,13 @@
         <v>9505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -3425,13 +3410,13 @@
         <v>13752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3431,13 @@
         <v>111518</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7">
         <v>90</v>
@@ -3461,13 +3446,13 @@
         <v>102400</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7">
         <v>208</v>
@@ -3476,13 +3461,13 @@
         <v>213918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3571,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3601,13 +3586,13 @@
         <v>25230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -3616,13 +3601,13 @@
         <v>35659</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -3631,13 +3616,13 @@
         <v>60889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3637,13 @@
         <v>561452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>517</v>
@@ -3667,13 +3652,13 @@
         <v>549486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>1044</v>
@@ -3682,13 +3667,13 @@
         <v>1110938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3777,7 +3762,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3807,13 +3792,13 @@
         <v>58137</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -3822,13 +3807,13 @@
         <v>80147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -3837,13 +3822,13 @@
         <v>138284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3843,13 @@
         <v>959810</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>867</v>
@@ -3873,13 +3858,13 @@
         <v>950762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>1749</v>
@@ -3888,13 +3873,13 @@
         <v>1910572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +3968,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4013,10 +3998,10 @@
         <v>40525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>47</v>
@@ -4028,13 +4013,13 @@
         <v>50174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -4043,13 +4028,13 @@
         <v>90699</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4049,13 @@
         <v>717098</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="H18" s="7">
         <v>659</v>
@@ -4079,10 +4064,10 @@
         <v>727000</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>209</v>
@@ -4225,7 +4210,7 @@
         <v>214</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -4234,13 +4219,13 @@
         <v>84706</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M21" s="7">
         <v>129</v>
@@ -4249,13 +4234,13 @@
         <v>132338</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4255,13 @@
         <v>900107</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>921</v>
@@ -4285,13 +4270,13 @@
         <v>967195</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>1784</v>
@@ -4300,13 +4285,13 @@
         <v>1867302</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4410,13 @@
         <v>175771</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>243</v>
@@ -4440,13 +4425,13 @@
         <v>260191</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -4455,13 +4440,13 @@
         <v>435962</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4461,13 @@
         <v>3249986</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>3054</v>
@@ -4491,13 +4476,13 @@
         <v>3296843</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>6098</v>
@@ -4506,13 +4491,13 @@
         <v>6546828</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,7 +4553,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4589,7 +4574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40550816-4C68-410B-8A23-A7FBBDA9B0E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFF3C61-0402-4A7D-8286-C582F4D24F1E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4606,7 +4591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4719,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4734,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4749,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4749,13 @@
         <v>2013</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4779,13 +4764,13 @@
         <v>5239</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4794,13 +4779,13 @@
         <v>7252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4800,13 @@
         <v>114533</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>109</v>
@@ -4830,13 +4815,13 @@
         <v>108121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -4845,13 +4830,13 @@
         <v>222654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,7 +4910,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4940,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4955,7 +4940,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4955,13 @@
         <v>27374</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4985,13 +4970,13 @@
         <v>32959</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -5003,10 +4988,10 @@
         <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5006,13 @@
         <v>530880</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>519</v>
@@ -5036,13 +5021,13 @@
         <v>526520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>1031</v>
@@ -5054,10 +5039,10 @@
         <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5116,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5146,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5176,13 +5161,13 @@
         <v>46098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -5191,13 +5176,13 @@
         <v>97180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5206,13 +5191,13 @@
         <v>143278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5212,13 @@
         <v>976333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>885</v>
@@ -5242,13 +5227,13 @@
         <v>945733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>1793</v>
@@ -5257,13 +5242,13 @@
         <v>1922066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5367,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5367,13 @@
         <v>26662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -5397,13 +5382,13 @@
         <v>63715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5412,13 +5397,13 @@
         <v>90376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5418,13 @@
         <v>732890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>675</v>
@@ -5448,13 +5433,13 @@
         <v>721296</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M18" s="7">
         <v>1347</v>
@@ -5463,13 +5448,13 @@
         <v>1454187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,7 +5543,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5588,13 +5573,13 @@
         <v>65322</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H21" s="7">
         <v>75</v>
@@ -5603,13 +5588,13 @@
         <v>82479</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M21" s="7">
         <v>139</v>
@@ -5618,13 +5603,13 @@
         <v>147801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5624,13 @@
         <v>872245</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>884</v>
@@ -5654,13 +5639,13 @@
         <v>961300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>1752</v>
@@ -5669,13 +5654,13 @@
         <v>1833545</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5779,13 @@
         <v>167469</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>266</v>
@@ -5809,13 +5794,13 @@
         <v>281571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>426</v>
@@ -5824,13 +5809,13 @@
         <v>449040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5830,13 @@
         <v>3226881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="H26" s="7">
         <v>3072</v>
@@ -5860,13 +5845,13 @@
         <v>3262971</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>6143</v>
@@ -5875,13 +5860,13 @@
         <v>6489852</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,7 +5922,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5958,7 +5943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6C1841-8C25-49CF-BC25-C23034A6194D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0114DC6E-22BA-4F4A-A338-F052432FC107}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5975,7 +5960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6088,7 +6073,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6103,7 +6088,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6118,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6118,13 @@
         <v>10886</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -6148,13 +6133,13 @@
         <v>14797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6163,13 +6148,13 @@
         <v>25683</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6169,13 @@
         <v>91096</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>218</v>
@@ -6199,13 +6184,13 @@
         <v>115607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>324</v>
@@ -6214,13 +6199,13 @@
         <v>206703</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,7 +6279,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6303,13 +6288,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6318,13 +6303,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6324,13 @@
         <v>48058</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H9" s="7">
         <v>118</v>
@@ -6354,13 +6339,13 @@
         <v>73632</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>146</v>
+        <v>376</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -6369,13 +6354,13 @@
         <v>121690</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6375,13 @@
         <v>501765</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>875</v>
@@ -6405,13 +6390,13 @@
         <v>516789</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>1438</v>
@@ -6420,13 +6405,13 @@
         <v>1018554</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6485,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6509,13 +6494,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6530,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6530,13 @@
         <v>95623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -6560,13 +6545,13 @@
         <v>108751</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -6575,13 +6560,13 @@
         <v>204374</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6581,13 @@
         <v>943625</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>401</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>1350</v>
@@ -6611,13 +6596,13 @@
         <v>946237</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>2234</v>
@@ -6626,13 +6611,13 @@
         <v>1889862</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,7 +6691,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6721,7 +6706,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6751,13 +6736,13 @@
         <v>87341</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>139</v>
@@ -6766,13 +6751,13 @@
         <v>96595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -6781,13 +6766,13 @@
         <v>183936</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6787,13 @@
         <v>637524</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>900</v>
@@ -6817,10 +6802,10 @@
         <v>769785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>77</v>
@@ -6832,13 +6817,13 @@
         <v>1407309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6906,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6936,13 +6921,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6942,13 @@
         <v>85345</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>427</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>182</v>
@@ -6972,13 +6957,13 @@
         <v>137834</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M21" s="7">
         <v>266</v>
@@ -6987,13 +6972,13 @@
         <v>223179</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +6993,13 @@
         <v>877934</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>1375</v>
@@ -7023,13 +7008,13 @@
         <v>1006287</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>2295</v>
@@ -7038,13 +7023,13 @@
         <v>1884221</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,10 +7115,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7142,13 +7127,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7148,13 @@
         <v>327252</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>625</v>
@@ -7178,13 +7163,13 @@
         <v>431609</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>927</v>
@@ -7193,13 +7178,13 @@
         <v>758862</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7199,13 @@
         <v>3051945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>4718</v>
@@ -7229,13 +7214,13 @@
         <v>3354705</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>7786</v>
@@ -7244,13 +7229,13 @@
         <v>6406650</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,7 +7291,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1416-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1416-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7DEE0E8-0B76-4BB2-A4AA-FB98B512D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F594D22-54D6-4AB2-9176-4E39CE920EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C03FE895-ED03-4E93-B8FF-632A7320FDE1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C9E2126-3C84-4839-9A6F-A01299FCAC06}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="346">
   <si>
     <t>Población con diagnóstico de alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1168 +68,1015 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>88,01%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de alergias crónicas en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
   </si>
 </sst>
 </file>
@@ -1641,8 +1488,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2846712D-5969-4EE9-BAE9-267DCB82A654}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0C37EF-684A-4C27-A77E-996150BA2F6A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1759,10 +1606,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>4412</v>
+        <v>35660</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1774,85 +1621,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="I4" s="7">
-        <v>4400</v>
+        <v>58267</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>8812</v>
+        <v>93927</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>101</v>
+        <v>647</v>
       </c>
       <c r="D5" s="7">
-        <v>110946</v>
+        <v>658352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>124</v>
+        <v>638</v>
       </c>
       <c r="I5" s="7">
-        <v>108355</v>
+        <v>630084</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1285</v>
       </c>
       <c r="N5" s="7">
-        <v>219301</v>
+        <v>1288436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,153 +1708,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>65</v>
+      </c>
+      <c r="D7" s="7">
+        <v>72021</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7">
-        <v>31248</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>53867</v>
+        <v>94967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="N7" s="7">
-        <v>85115</v>
+        <v>166988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>546</v>
+        <v>831</v>
       </c>
       <c r="D8" s="7">
-        <v>547406</v>
+        <v>889779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>514</v>
+        <v>819</v>
       </c>
       <c r="I8" s="7">
-        <v>521729</v>
+        <v>873426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1060</v>
+        <v>1650</v>
       </c>
       <c r="N8" s="7">
-        <v>1069135</v>
+        <v>1763205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,153 +1863,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>72021</v>
+        <v>40886</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>94967</v>
+        <v>60485</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>166988</v>
+        <v>101371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>831</v>
+        <v>602</v>
       </c>
       <c r="D11" s="7">
-        <v>889779</v>
+        <v>637623</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>819</v>
+        <v>633</v>
       </c>
       <c r="I11" s="7">
-        <v>873426</v>
+        <v>623356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1650</v>
+        <v>1235</v>
       </c>
       <c r="N11" s="7">
-        <v>1763205</v>
+        <v>1260979</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,132 +2018,132 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7">
-        <v>40886</v>
+        <v>70712</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>60485</v>
+        <v>110310</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="N13" s="7">
-        <v>101371</v>
+        <v>181022</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>602</v>
+        <v>922</v>
       </c>
       <c r="D14" s="7">
-        <v>637623</v>
+        <v>871510</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>633</v>
+        <v>892</v>
       </c>
       <c r="I14" s="7">
-        <v>623356</v>
+        <v>928302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>81</v>
@@ -2305,10 +2152,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1235</v>
+        <v>1814</v>
       </c>
       <c r="N14" s="7">
-        <v>1260979</v>
+        <v>1799812</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2326,93 +2173,93 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="D16" s="7">
-        <v>70712</v>
+        <v>219279</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>315</v>
+      </c>
+      <c r="I16" s="7">
+        <v>324030</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>105</v>
-      </c>
-      <c r="I16" s="7">
-        <v>110310</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>177</v>
+        <v>527</v>
       </c>
       <c r="N16" s="7">
-        <v>181022</v>
+        <v>543309</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -2427,13 +2274,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>922</v>
+        <v>3002</v>
       </c>
       <c r="D17" s="7">
-        <v>871510</v>
+        <v>3057264</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -2445,10 +2292,10 @@
         <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>892</v>
+        <v>2982</v>
       </c>
       <c r="I17" s="7">
-        <v>928302</v>
+        <v>3055167</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>98</v>
@@ -2457,22 +2304,22 @@
         <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1814</v>
+        <v>5984</v>
       </c>
       <c r="N17" s="7">
-        <v>1799812</v>
+        <v>6112432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,217 +2328,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>212</v>
-      </c>
-      <c r="D19" s="7">
-        <v>219279</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>315</v>
-      </c>
-      <c r="I19" s="7">
-        <v>324030</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>527</v>
-      </c>
-      <c r="N19" s="7">
-        <v>543309</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3002</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3057265</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2982</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3055168</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5984</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6112431</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2704,8 +2395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5721B58-B61C-493B-BC26-D26E26DBB44A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE44BA7-B421-4B22-A999-12DD7BC5BC0A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2721,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2822,100 +2513,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>4247</v>
+        <v>29477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>9505</v>
+        <v>45165</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="N4" s="7">
-        <v>13752</v>
+        <v>74641</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>645</v>
+      </c>
+      <c r="D5" s="7">
+        <v>672970</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
+        <v>607</v>
+      </c>
+      <c r="I5" s="7">
+        <v>651885</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="7">
-        <v>111518</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="7">
-        <v>90</v>
-      </c>
-      <c r="I5" s="7">
-        <v>102400</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>208</v>
+        <v>1252</v>
       </c>
       <c r="N5" s="7">
-        <v>213918</v>
+        <v>1324856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,153 +2615,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>702447</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1323</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1399497</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>25230</v>
+        <v>58137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>35659</v>
+        <v>80147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="N7" s="7">
-        <v>60889</v>
+        <v>138284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>527</v>
+        <v>882</v>
       </c>
       <c r="D8" s="7">
-        <v>561452</v>
+        <v>959810</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>517</v>
+        <v>867</v>
       </c>
       <c r="I8" s="7">
-        <v>549486</v>
+        <v>950762</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>1044</v>
+        <v>1749</v>
       </c>
       <c r="N8" s="7">
-        <v>1110938</v>
+        <v>1910572</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,153 +2770,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>551</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>586682</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1030909</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1102</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1171827</v>
+        <v>2048856</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>58137</v>
+        <v>40525</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>80147</v>
+        <v>50174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>138284</v>
+        <v>90699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>882</v>
+        <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>959810</v>
+        <v>717098</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>867</v>
+        <v>659</v>
       </c>
       <c r="I11" s="7">
-        <v>950762</v>
+        <v>727000</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1749</v>
+        <v>1313</v>
       </c>
       <c r="N11" s="7">
-        <v>1910572</v>
+        <v>1444098</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,153 +2925,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1030909</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2048856</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>40525</v>
+        <v>47632</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I13" s="7">
-        <v>50174</v>
+        <v>84706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="N13" s="7">
-        <v>90699</v>
+        <v>132338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>654</v>
+        <v>863</v>
       </c>
       <c r="D14" s="7">
-        <v>717098</v>
+        <v>900107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>659</v>
+        <v>921</v>
       </c>
       <c r="I14" s="7">
-        <v>727000</v>
+        <v>967195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
-        <v>1313</v>
+        <v>1784</v>
       </c>
       <c r="N14" s="7">
-        <v>1444098</v>
+        <v>1867302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,153 +3080,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="D16" s="7">
-        <v>47632</v>
+        <v>175771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="I16" s="7">
-        <v>84706</v>
+        <v>260191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="N16" s="7">
-        <v>132338</v>
+        <v>435962</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>863</v>
+        <v>3044</v>
       </c>
       <c r="D17" s="7">
-        <v>900107</v>
+        <v>3249986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>921</v>
+        <v>3054</v>
       </c>
       <c r="I17" s="7">
-        <v>967195</v>
+        <v>3296843</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>1784</v>
+        <v>6098</v>
       </c>
       <c r="N17" s="7">
-        <v>1867302</v>
+        <v>6546828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,217 +3235,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3425757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3557034</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6982790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>164</v>
-      </c>
-      <c r="D19" s="7">
-        <v>175771</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>260191</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M19" s="7">
-        <v>407</v>
-      </c>
-      <c r="N19" s="7">
-        <v>435962</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3044</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3249986</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3054</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3296843</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6098</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6546828</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425757</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3557034</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6982790</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3767,8 +3302,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B7095F-7D5F-4416-97FC-D6E1F6169C5D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F513B6-CEC8-48C1-AF1A-B051877B8382}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3784,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,100 +3420,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>2013</v>
+        <v>29387</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>5239</v>
+        <v>38198</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>7252</v>
+        <v>67585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>623</v>
       </c>
       <c r="D5" s="7">
-        <v>114533</v>
+        <v>645413</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>628</v>
       </c>
       <c r="I5" s="7">
-        <v>108121</v>
+        <v>634641</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
-        <v>220</v>
+        <v>1251</v>
       </c>
       <c r="N5" s="7">
-        <v>222654</v>
+        <v>1280054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,153 +3522,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>27374</v>
+        <v>46098</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>32959</v>
+        <v>97180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="N7" s="7">
-        <v>60333</v>
+        <v>143278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>512</v>
+        <v>908</v>
       </c>
       <c r="D8" s="7">
-        <v>530880</v>
+        <v>976333</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
-        <v>519</v>
+        <v>885</v>
       </c>
       <c r="I8" s="7">
-        <v>526520</v>
+        <v>945733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>1031</v>
+        <v>1793</v>
       </c>
       <c r="N8" s="7">
-        <v>1057400</v>
+        <v>1922066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,153 +3677,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>46098</v>
+        <v>26662</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>97180</v>
+        <v>63715</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>143278</v>
+        <v>90376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>908</v>
+        <v>672</v>
       </c>
       <c r="D11" s="7">
-        <v>976333</v>
+        <v>732890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
-        <v>885</v>
+        <v>675</v>
       </c>
       <c r="I11" s="7">
-        <v>945733</v>
+        <v>721296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
-        <v>1793</v>
+        <v>1347</v>
       </c>
       <c r="N11" s="7">
-        <v>1922066</v>
+        <v>1454187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,153 +3832,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>26662</v>
+        <v>65322</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I13" s="7">
-        <v>63715</v>
+        <v>82479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="N13" s="7">
-        <v>90376</v>
+        <v>147801</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>672</v>
+        <v>868</v>
       </c>
       <c r="D14" s="7">
-        <v>732890</v>
+        <v>872245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>675</v>
+        <v>884</v>
       </c>
       <c r="I14" s="7">
-        <v>721296</v>
+        <v>961300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
-        <v>1347</v>
+        <v>1752</v>
       </c>
       <c r="N14" s="7">
-        <v>1454187</v>
+        <v>1833545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,153 +3987,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="D16" s="7">
-        <v>65322</v>
+        <v>167469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="I16" s="7">
-        <v>82479</v>
+        <v>281571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
-        <v>139</v>
+        <v>426</v>
       </c>
       <c r="N16" s="7">
-        <v>147801</v>
+        <v>449040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>868</v>
+        <v>3071</v>
       </c>
       <c r="D17" s="7">
-        <v>872245</v>
+        <v>3226881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
-        <v>884</v>
+        <v>3072</v>
       </c>
       <c r="I17" s="7">
-        <v>961300</v>
+        <v>3262971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
-        <v>1752</v>
+        <v>6143</v>
       </c>
       <c r="N17" s="7">
-        <v>1833545</v>
+        <v>6489852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,217 +4142,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>160</v>
-      </c>
-      <c r="D19" s="7">
-        <v>167469</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="7">
-        <v>266</v>
-      </c>
-      <c r="I19" s="7">
-        <v>281571</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M19" s="7">
-        <v>426</v>
-      </c>
-      <c r="N19" s="7">
-        <v>449040</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3071</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3226881</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3072</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3262971</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6143</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6489852</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4830,8 +4209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02B376-C671-402A-BCE9-849E08AA3CF0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0374F6-10B3-444A-8D9B-464277EEA6E6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4847,7 +4226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4948,100 +4327,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>10886</v>
+        <v>57481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="I4" s="7">
-        <v>14797</v>
+        <v>83181</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="N4" s="7">
-        <v>25683</v>
+        <v>140662</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>669</v>
       </c>
       <c r="D5" s="7">
-        <v>91096</v>
+        <v>577960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
-        <v>218</v>
+        <v>1093</v>
       </c>
       <c r="I5" s="7">
-        <v>115607</v>
+        <v>590093</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
-        <v>324</v>
+        <v>1762</v>
       </c>
       <c r="N5" s="7">
-        <v>206703</v>
+        <v>1168053</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,153 +4429,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1235</v>
       </c>
       <c r="I6" s="7">
-        <v>130404</v>
+        <v>673274</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1965</v>
       </c>
       <c r="N6" s="7">
-        <v>232386</v>
+        <v>1308715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7">
-        <v>48058</v>
+        <v>96593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="H7" s="7">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="I7" s="7">
-        <v>73632</v>
+        <v>98430</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="N7" s="7">
-        <v>121690</v>
+        <v>195023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>563</v>
+        <v>884</v>
       </c>
       <c r="D8" s="7">
-        <v>501765</v>
+        <v>1096271</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
-        <v>875</v>
+        <v>1350</v>
       </c>
       <c r="I8" s="7">
-        <v>516789</v>
+        <v>856112</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
-        <v>1438</v>
+        <v>2234</v>
       </c>
       <c r="N8" s="7">
-        <v>1018554</v>
+        <v>1952383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,153 +4584,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>1512</v>
       </c>
       <c r="I9" s="7">
-        <v>590421</v>
+        <v>954542</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1605</v>
+        <v>2476</v>
       </c>
       <c r="N9" s="7">
-        <v>1140244</v>
+        <v>2147406</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>95623</v>
+        <v>86762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="I10" s="7">
-        <v>108751</v>
+        <v>87828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="N10" s="7">
-        <v>204374</v>
+        <v>174591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>884</v>
+        <v>595</v>
       </c>
       <c r="D11" s="7">
-        <v>943625</v>
+        <v>614299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
-        <v>1350</v>
+        <v>900</v>
       </c>
       <c r="I11" s="7">
-        <v>946238</v>
+        <v>838583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
-        <v>2234</v>
+        <v>1495</v>
       </c>
       <c r="N11" s="7">
-        <v>1889862</v>
+        <v>1452880</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,153 +4739,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>672</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>701061</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1512</v>
+        <v>1039</v>
       </c>
       <c r="I12" s="7">
-        <v>1054989</v>
+        <v>926411</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1711</v>
       </c>
       <c r="N12" s="7">
-        <v>2094236</v>
+        <v>1627471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>87341</v>
+        <v>84179</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="I13" s="7">
-        <v>96595</v>
+        <v>123553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="N13" s="7">
-        <v>183936</v>
+        <v>207731</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>595</v>
+        <v>920</v>
       </c>
       <c r="D14" s="7">
-        <v>637524</v>
+        <v>840619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
-        <v>900</v>
+        <v>1375</v>
       </c>
       <c r="I14" s="7">
-        <v>769785</v>
+        <v>966053</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
-        <v>1495</v>
+        <v>2295</v>
       </c>
       <c r="N14" s="7">
-        <v>1407309</v>
+        <v>1806672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,153 +4894,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>672</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>724865</v>
+        <v>924798</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1039</v>
+        <v>1557</v>
       </c>
       <c r="I15" s="7">
-        <v>866380</v>
+        <v>1089606</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1711</v>
+        <v>2561</v>
       </c>
       <c r="N15" s="7">
-        <v>1591245</v>
+        <v>2014403</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="D16" s="7">
-        <v>85345</v>
+        <v>325015</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
-        <v>182</v>
+        <v>625</v>
       </c>
       <c r="I16" s="7">
-        <v>137834</v>
+        <v>392992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
-        <v>266</v>
+        <v>927</v>
       </c>
       <c r="N16" s="7">
-        <v>223179</v>
+        <v>718007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>920</v>
+        <v>3068</v>
       </c>
       <c r="D17" s="7">
-        <v>877934</v>
+        <v>3129149</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
-        <v>1375</v>
+        <v>4718</v>
       </c>
       <c r="I17" s="7">
-        <v>1006286</v>
+        <v>3250840</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
-        <v>2295</v>
+        <v>7786</v>
       </c>
       <c r="N17" s="7">
-        <v>1884221</v>
+        <v>6379989</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,217 +5049,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3370</v>
       </c>
       <c r="D18" s="7">
-        <v>963279</v>
+        <v>3454164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1557</v>
+        <v>5343</v>
       </c>
       <c r="I18" s="7">
-        <v>1144120</v>
+        <v>3643832</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2561</v>
+        <v>8713</v>
       </c>
       <c r="N18" s="7">
-        <v>2107400</v>
+        <v>7097996</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>302</v>
-      </c>
-      <c r="D19" s="7">
-        <v>327252</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H19" s="7">
-        <v>625</v>
-      </c>
-      <c r="I19" s="7">
-        <v>431609</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M19" s="7">
-        <v>927</v>
-      </c>
-      <c r="N19" s="7">
-        <v>758862</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3068</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3051945</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4718</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3354705</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7786</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6406650</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3370</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3379197</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5343</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3786314</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8713</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7165512</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
